--- a/财务分析/公司报表.xlsx
+++ b/财务分析/公司报表.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataStu\财务分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA8D265-E6F1-4844-800A-A2E943769E87}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E752B8F2-5E16-4BC3-9996-66B4487B7829}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="资产负债表" sheetId="1" r:id="rId1"/>
     <sheet name="利润表" sheetId="2" r:id="rId2"/>
     <sheet name="现金流量表" sheetId="3" r:id="rId3"/>
+    <sheet name="基础数据表" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="209">
   <si>
     <t>公司</t>
   </si>
@@ -493,12 +494,6 @@
   </si>
   <si>
     <t>支付投资其他B</t>
-  </si>
-  <si>
-    <t>投资流出计</t>
-  </si>
-  <si>
-    <t>投资流量净额</t>
   </si>
   <si>
     <t>吸收投资E</t>
@@ -609,10 +604,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>格力电器20170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>递延所得税资产E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -634,6 +625,54 @@
   </si>
   <si>
     <t>六每股收益B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格力电器20160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资流出计E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资流出计B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资流量净额E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资流量净额B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告季度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +680,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -658,13 +697,25 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -679,12 +730,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1001,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI3"/>
   <sheetViews>
-    <sheetView topLeftCell="BT1" workbookViewId="0">
-      <selection activeCell="CC10" sqref="CC10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1068,10 +1121,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -1152,10 +1205,10 @@
         <v>28</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>29</v>
@@ -1322,7 +1375,7 @@
     </row>
     <row r="2" spans="1:87">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="2">
         <v>95613130731.470001</v>
@@ -1541,21 +1594,21 @@
         <v>161698016315.06</v>
       </c>
       <c r="CF2" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="CG2" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="CH2" s="3">
         <v>0</v>
       </c>
       <c r="CI2" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:87">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B3" s="2">
         <v>174121009199.92999</v>
@@ -1569,6 +1622,12 @@
       <c r="E3" s="2">
         <v>458671184.10000002</v>
       </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
       <c r="H3" s="2">
         <v>1432734013.8399999</v>
       </c>
@@ -1792,7 +1851,7 @@
         <v>830674213924.14001</v>
       </c>
       <c r="CF3" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CG3" s="1">
         <v>2017</v>
@@ -1801,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="CI3" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1814,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86483252-11D5-4579-8AB9-D4468734B29D}">
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AK9" sqref="AK9"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1947,7 +2006,7 @@
         <v>116</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>117</v>
@@ -1970,7 +2029,7 @@
     </row>
     <row r="2" spans="1:41">
       <c r="A2" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B2" s="2">
         <v>110113101850.23</v>
@@ -2081,21 +2140,21 @@
         <v>12484010303.780001</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AM2" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="AN2" s="3">
         <v>0</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:41">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B3" s="2">
         <v>242897110250.51999</v>
@@ -2194,7 +2253,7 @@
         <v>28311311325.540001</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AM3" s="1">
         <v>2017</v>
@@ -2203,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2214,336 +2273,725 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1F150F-7268-41A5-851C-E0EF042794D4}">
-  <dimension ref="A1:BU3"/>
+  <dimension ref="A1:BW3"/>
+  <sheetViews>
+    <sheetView topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="BU10" sqref="BU10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="38" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.28515625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21" style="1" customWidth="1"/>
+    <col min="44" max="44" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="49" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="59" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="65" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:75">
+      <c r="A1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BU1" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:75">
+      <c r="A2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="2">
+        <v>69896621293.210007</v>
+      </c>
+      <c r="C2" s="2">
+        <v>110918320884.07001</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1139337699.5999999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1237326987.9100001</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2938826213.6500001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>4682640196.0900002</v>
+      </c>
+      <c r="H2" s="2">
+        <v>75515435932.309998</v>
+      </c>
+      <c r="I2" s="2">
+        <v>118796508123.64</v>
+      </c>
+      <c r="J2" s="2">
+        <v>40478783811.269997</v>
+      </c>
+      <c r="K2" s="2">
+        <v>42541255260.220001</v>
+      </c>
+      <c r="L2" s="2">
+        <v>11333898757.719999</v>
+      </c>
+      <c r="M2" s="2">
+        <v>13773887181.66</v>
+      </c>
+      <c r="N2" s="2">
+        <v>8371524851.1400003</v>
+      </c>
+      <c r="O2" s="2">
+        <v>10435185083.9</v>
+      </c>
+      <c r="P2" s="2">
+        <v>60655483825.389999</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>74418126295.960007</v>
+      </c>
+      <c r="R2" s="2">
+        <v>14859952106.92</v>
+      </c>
+      <c r="S2" s="2">
+        <v>44378381827.68</v>
+      </c>
+      <c r="T2" s="2">
+        <v>3142289553.3499999</v>
+      </c>
+      <c r="U2" s="2">
+        <v>950000000</v>
+      </c>
+      <c r="V2" s="2">
+        <v>264728491.86000001</v>
+      </c>
+      <c r="W2" s="2">
+        <v>84643291.790000007</v>
+      </c>
+      <c r="X2" s="2">
+        <v>27196374.800000001</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>1228803.43</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>6500000</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>143435881.62</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>3440714420.0100002</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>1179307976.8399999</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>3276936026.6799998</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>2884513074.71</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>1496403698.8599999</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>2832663335.6199999</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>17913927388.57</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>175286430.99000001</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>22687267114.110001</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>5892462841.3199997</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>-19246552694.099998</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>-4713154864.4799995</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>12382413204.610001</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>10096926967.84</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>2110522945.98</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>1257485012.71</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>14492936150.59</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>11354411980.549999</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>11054156840.309999</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>9512423538.1499996</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>9180067571.7099991</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>9525010447.4599991</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>10271924.02</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>20244496336.040001</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>19037433985.610001</v>
+      </c>
+      <c r="BL2" s="2">
+        <v>-5751560185.4499998</v>
+      </c>
+      <c r="BM2" s="2">
+        <v>-7683022005.0600004</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>4094503950.2399998</v>
+      </c>
+      <c r="BO2" s="2">
+        <v>1876340773.99</v>
+      </c>
+      <c r="BP2" s="2">
+        <v>-6043656822.3900003</v>
+      </c>
+      <c r="BQ2" s="2">
+        <v>33858545732.130001</v>
+      </c>
+      <c r="BR2" s="2">
+        <v>71321360022.830002</v>
+      </c>
+      <c r="BS2" s="2">
+        <v>77365016845.220001</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BU2" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:75">
+      <c r="A3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="2">
+        <v>368405223395.35999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>286532938270.71002</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43855663432.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>26302677472.790001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>412260886827.85999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>312835615743.5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>234876355213.07999</v>
+      </c>
+      <c r="K3" s="2">
+        <v>178468699955.35999</v>
+      </c>
+      <c r="L3" s="2">
+        <v>39759746765.400002</v>
+      </c>
+      <c r="M3" s="2">
+        <v>33760312000.18</v>
+      </c>
+      <c r="N3" s="2">
+        <v>46058348068.660004</v>
+      </c>
+      <c r="O3" s="2">
+        <v>54351461300.449997</v>
+      </c>
+      <c r="P3" s="2">
+        <v>329938052611.35999</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>273269486721.81</v>
+      </c>
+      <c r="R3" s="2">
+        <v>82322834216.5</v>
+      </c>
+      <c r="S3" s="2">
+        <v>39566129021.690002</v>
+      </c>
+      <c r="T3" s="2">
+        <v>3367297383.8499999</v>
+      </c>
+      <c r="U3" s="2">
+        <v>493101153.44</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1251494572.5999999</v>
+      </c>
+      <c r="W3" s="2">
+        <v>2582729064.1399999</v>
+      </c>
+      <c r="X3" s="2">
+        <v>141605787.75</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>247376847.5</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>3191189237.6799998</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>419725190.02999997</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>11819981019.690001</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>2821834610.21</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>19771568001.57</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>6564766865.3199997</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>2360481196.9899998</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>2146785574.6700001</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>46833228034.379997</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>31771132896.709999</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>21315728901.150002</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>14646744872.860001</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>875362911.55999994</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>1389153665.3900001</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>71384801044.080002</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>49953817009.629997</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>-51613233042.510002</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>-43389050144.309998</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>14253822653.98</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>9735250248.5599995</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>94575766875.149994</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>68774573215.130005</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>10620400000</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>11645762254.379999</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>4324560000</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>123774549529.13</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>90155585718.070007</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>8120957372.0299997</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>4006258178.1300001</v>
+      </c>
+      <c r="BD3" s="2">
+        <v>41254319676.169998</v>
+      </c>
+      <c r="BE3" s="2">
+        <v>38826219711.440002</v>
+      </c>
+      <c r="BF3" s="2">
+        <v>19134376263.23</v>
+      </c>
+      <c r="BG3" s="2">
+        <v>16026457227.879999</v>
+      </c>
+      <c r="BJ3" s="2">
+        <v>68509653311.43</v>
+      </c>
+      <c r="BK3" s="2">
+        <v>58858935117.449997</v>
+      </c>
+      <c r="BL3" s="2">
+        <v>55264896217.699997</v>
+      </c>
+      <c r="BM3" s="2">
+        <v>31296650600.619999</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>-1138504966.0799999</v>
+      </c>
+      <c r="BO3" s="2">
+        <v>268664301.75</v>
+      </c>
+      <c r="BP3" s="2">
+        <v>84835992425.610001</v>
+      </c>
+      <c r="BQ3" s="2">
+        <v>27742393779.75</v>
+      </c>
+      <c r="BR3" s="2">
+        <v>164326007371.29999</v>
+      </c>
+      <c r="BS3" s="2">
+        <v>79490014945.690002</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="BU3" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="BV3" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB9B332-6367-49E7-BDF8-F73878560B57}">
+  <dimension ref="B3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BS10" sqref="BS10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="15.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:73">
-      <c r="A1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L1" t="s">
-        <v>129</v>
-      </c>
-      <c r="M1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O1" t="s">
-        <v>132</v>
-      </c>
-      <c r="P1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>134</v>
-      </c>
-      <c r="R1" t="s">
-        <v>135</v>
-      </c>
-      <c r="S1" t="s">
-        <v>136</v>
-      </c>
-      <c r="T1" t="s">
-        <v>137</v>
-      </c>
-      <c r="U1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V1" t="s">
-        <v>139</v>
-      </c>
-      <c r="W1" t="s">
-        <v>140</v>
-      </c>
-      <c r="X1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>174</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>175</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>183</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BP1" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>186</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BS1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:73" ht="16.5">
-      <c r="BR2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BS2" s="1">
-        <v>2017</v>
-      </c>
-      <c r="BT2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:73" ht="16.5">
-      <c r="BR3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BS3" s="1">
-        <v>2017</v>
-      </c>
-      <c r="BT3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/财务分析/公司报表.xlsx
+++ b/财务分析/公司报表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\DataStu\财务分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E752B8F2-5E16-4BC3-9996-66B4487B7829}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AED8C17-BB5D-41E7-B7D4-048A0F3E8969}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="211">
   <si>
     <t>公司</t>
   </si>
@@ -673,6 +673,13 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛海尔</t>
+  </si>
+  <si>
+    <t>青岛海尔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1052,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CI3"/>
+  <dimension ref="A1:CI4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1863,9 +1870,26 @@
         <v>190</v>
       </c>
     </row>
+    <row r="4" spans="1:87">
+      <c r="A4" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{06DBBBAA-9574-4501-9589-027AC1D7A5BF}">
+          <x14:formula1>
+            <xm:f>基础数据表!$B$4:$B$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1873,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86483252-11D5-4579-8AB9-D4468734B29D}">
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2268,6 +2292,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AD257835-D717-428E-84E5-D0B3B82AC0E8}">
+          <x14:formula1>
+            <xm:f>基础数据表!$B$4:$B$38</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2275,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1F150F-7268-41A5-851C-E0EF042794D4}">
   <dimension ref="A1:BW3"/>
   <sheetViews>
-    <sheetView topLeftCell="BJ1" workbookViewId="0">
-      <selection activeCell="BU10" sqref="BU10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2966,15 +3002,27 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CE41C8D8-01A7-4596-9D5C-45AA9E57098C}">
+          <x14:formula1>
+            <xm:f>基础数据表!$B$4:$B$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB9B332-6367-49E7-BDF8-F73878560B57}">
-  <dimension ref="B3:B5"/>
+  <dimension ref="B3:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2994,6 +3042,11 @@
         <v>185</v>
       </c>
     </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
